--- a/Tables/05_BLtrimmer_results_comparing_MeltR_methods_1_2_3/05_BLtrimmer_results_comparing_MeltR_methods_1_2_3.xlsx
+++ b/Tables/05_BLtrimmer_results_comparing_MeltR_methods_1_2_3/05_BLtrimmer_results_comparing_MeltR_methods_1_2_3.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpsie\Documents\meltR.a.paper\Tables\05_BLtrimmer_results_comparing_MeltR_methods_1_2_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{790F69DF-8F91-41E0-9D72-79F545BB0D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F43162-0819-44F6-9EB7-5FCAB0000751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="156" yWindow="0" windowWidth="22884" windowHeight="12360"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05_BLtrimmer_results_comparing_" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="307">
   <si>
     <t>Helix</t>
   </si>
@@ -584,9 +597,6 @@
   </si>
   <si>
     <t>-40.5 (-42 to -39.1)</t>
-  </si>
-  <si>
-    <t>NA (NA to NA)</t>
   </si>
   <si>
     <t>-39.57 (-42.39 to -37.97)</t>
@@ -949,9 +959,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1430,9 +1440,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1787,14 +1798,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="10" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1851,7 +1865,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,45 +2575,33 @@
         <v>0.55222901660432722</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>186</v>
       </c>
       <c r="B17" t="s">
         <v>187</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>188</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>189</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>190</v>
       </c>
-      <c r="F17" t="s">
-        <v>188</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>191</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>192</v>
       </c>
-      <c r="I17" t="s">
-        <v>188</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>193</v>
       </c>
-      <c r="K17" t="s">
-        <v>194</v>
-      </c>
-      <c r="L17" t="s">
-        <v>188</v>
-      </c>
       <c r="M17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N17">
         <v>2.3229674035219201</v>
@@ -2613,46 +2615,44 @@
       <c r="Q17">
         <v>0</v>
       </c>
+      <c r="R17">
+        <v>-3.94</v>
+      </c>
+      <c r="S17">
+        <v>-3.8</v>
+      </c>
+      <c r="T17">
+        <f>ABS(R17-S17)</f>
+        <v>0.14000000000000012</v>
+      </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" t="s">
         <v>195</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>196</v>
       </c>
-      <c r="C18" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>197</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>198</v>
       </c>
-      <c r="F18" t="s">
-        <v>188</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>199</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>200</v>
       </c>
-      <c r="I18" t="s">
-        <v>188</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>201</v>
       </c>
-      <c r="K18" t="s">
-        <v>202</v>
-      </c>
-      <c r="L18" t="s">
-        <v>188</v>
-      </c>
       <c r="M18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N18">
         <v>3.6220693528007799</v>
@@ -2666,46 +2666,44 @@
       <c r="Q18">
         <v>0</v>
       </c>
+      <c r="R18">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="S18">
+        <v>-2.25</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ref="T18:T31" si="1">ABS(R18-S18)</f>
+        <v>9.9999999999997868E-3</v>
+      </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" t="s">
         <v>203</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>204</v>
       </c>
-      <c r="C19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>205</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>206</v>
       </c>
-      <c r="F19" t="s">
-        <v>188</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>207</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>208</v>
       </c>
-      <c r="I19" t="s">
-        <v>188</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>209</v>
       </c>
-      <c r="K19" t="s">
-        <v>210</v>
-      </c>
-      <c r="L19" t="s">
-        <v>188</v>
-      </c>
       <c r="M19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N19">
         <v>0.53720118184258903</v>
@@ -2719,46 +2717,44 @@
       <c r="Q19">
         <v>0</v>
       </c>
+      <c r="R19">
+        <v>-1.46</v>
+      </c>
+      <c r="S19">
+        <v>-1.4</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" t="s">
         <v>211</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>212</v>
       </c>
-      <c r="C20" t="s">
-        <v>188</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>213</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>214</v>
       </c>
-      <c r="F20" t="s">
-        <v>188</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>215</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>216</v>
       </c>
-      <c r="I20" t="s">
-        <v>188</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>217</v>
       </c>
-      <c r="K20" t="s">
-        <v>218</v>
-      </c>
-      <c r="L20" t="s">
-        <v>188</v>
-      </c>
       <c r="M20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N20">
         <v>1.9422863485016699</v>
@@ -2772,46 +2768,44 @@
       <c r="Q20">
         <v>0</v>
       </c>
+      <c r="R20">
+        <v>-1.24</v>
+      </c>
+      <c r="S20">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>0.10000000000000009</v>
+      </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" t="s">
         <v>219</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>220</v>
       </c>
-      <c r="C21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>221</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>222</v>
       </c>
-      <c r="F21" t="s">
-        <v>188</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>223</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>224</v>
       </c>
-      <c r="I21" t="s">
-        <v>188</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>225</v>
       </c>
-      <c r="K21" t="s">
-        <v>226</v>
-      </c>
-      <c r="L21" t="s">
-        <v>188</v>
-      </c>
       <c r="M21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N21">
         <v>7.9756468797564599</v>
@@ -2825,46 +2819,44 @@
       <c r="Q21">
         <v>0</v>
       </c>
+      <c r="R21">
+        <v>-2.94</v>
+      </c>
+      <c r="S21">
+        <v>-2.68</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>0.25999999999999979</v>
+      </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" t="s">
         <v>227</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>228</v>
       </c>
-      <c r="C22" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>229</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>230</v>
       </c>
-      <c r="F22" t="s">
-        <v>188</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>231</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>232</v>
       </c>
-      <c r="I22" t="s">
-        <v>188</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>233</v>
       </c>
-      <c r="K22" t="s">
-        <v>234</v>
-      </c>
-      <c r="L22" t="s">
-        <v>188</v>
-      </c>
       <c r="M22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N22">
         <v>5.38290788013318</v>
@@ -2878,46 +2870,44 @@
       <c r="Q22">
         <v>0</v>
       </c>
+      <c r="R22">
+        <v>-3.49</v>
+      </c>
+      <c r="S22">
+        <v>-3.58</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B23" t="s">
         <v>235</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>236</v>
       </c>
-      <c r="C23" t="s">
-        <v>188</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>237</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>238</v>
       </c>
-      <c r="F23" t="s">
-        <v>188</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>239</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>240</v>
       </c>
-      <c r="I23" t="s">
-        <v>188</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>241</v>
       </c>
-      <c r="K23" t="s">
-        <v>242</v>
-      </c>
-      <c r="L23" t="s">
-        <v>188</v>
-      </c>
       <c r="M23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N23">
         <v>0.32539565153083699</v>
@@ -2931,46 +2921,44 @@
       <c r="Q23">
         <v>0</v>
       </c>
+      <c r="R23">
+        <v>-2.78</v>
+      </c>
+      <c r="S23">
+        <v>-2.82</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" t="s">
         <v>243</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>244</v>
       </c>
-      <c r="C24" t="s">
-        <v>188</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>245</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>246</v>
       </c>
-      <c r="F24" t="s">
-        <v>188</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>247</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>248</v>
       </c>
-      <c r="I24" t="s">
-        <v>188</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>249</v>
       </c>
-      <c r="K24" t="s">
-        <v>250</v>
-      </c>
-      <c r="L24" t="s">
-        <v>188</v>
-      </c>
       <c r="M24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N24">
         <v>0.56497175141242495</v>
@@ -2984,46 +2972,44 @@
       <c r="Q24">
         <v>0</v>
       </c>
+      <c r="R24">
+        <v>-4.59</v>
+      </c>
+      <c r="S24">
+        <v>-4.38</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>0.20999999999999996</v>
+      </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25" t="s">
         <v>251</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>252</v>
       </c>
-      <c r="C25" t="s">
-        <v>188</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>253</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>254</v>
       </c>
-      <c r="F25" t="s">
-        <v>188</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>255</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>256</v>
       </c>
-      <c r="I25" t="s">
-        <v>188</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>257</v>
       </c>
-      <c r="K25" t="s">
-        <v>258</v>
-      </c>
-      <c r="L25" t="s">
-        <v>188</v>
-      </c>
       <c r="M25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N25">
         <v>1.3270142180094799</v>
@@ -3037,46 +3023,44 @@
       <c r="Q25">
         <v>0</v>
       </c>
+      <c r="R25">
+        <v>-3.16</v>
+      </c>
+      <c r="S25">
+        <v>-2.9</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>0.26000000000000023</v>
+      </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26" t="s">
         <v>259</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>260</v>
       </c>
-      <c r="C26" t="s">
-        <v>188</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>261</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>262</v>
       </c>
-      <c r="F26" t="s">
-        <v>188</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>263</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>264</v>
       </c>
-      <c r="I26" t="s">
-        <v>188</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>265</v>
       </c>
-      <c r="K26" t="s">
-        <v>266</v>
-      </c>
-      <c r="L26" t="s">
-        <v>188</v>
-      </c>
       <c r="M26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N26">
         <v>2.9215624007621401</v>
@@ -3090,46 +3074,44 @@
       <c r="Q26">
         <v>0</v>
       </c>
+      <c r="R26">
+        <v>-2.33</v>
+      </c>
+      <c r="S26">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B27" t="s">
         <v>267</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>268</v>
       </c>
-      <c r="C27" t="s">
-        <v>188</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>269</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>270</v>
       </c>
-      <c r="F27" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>271</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
         <v>272</v>
       </c>
-      <c r="I27" t="s">
-        <v>188</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>273</v>
       </c>
-      <c r="K27" t="s">
-        <v>274</v>
-      </c>
-      <c r="L27" t="s">
-        <v>188</v>
-      </c>
       <c r="M27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N27">
         <v>9.8929394226860001</v>
@@ -3143,46 +3125,44 @@
       <c r="Q27">
         <v>0</v>
       </c>
+      <c r="R27">
+        <v>-4.29</v>
+      </c>
+      <c r="S27">
+        <v>-3.78</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>0.51000000000000023</v>
+      </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" t="s">
         <v>275</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>276</v>
       </c>
-      <c r="C28" t="s">
-        <v>188</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>277</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>278</v>
       </c>
-      <c r="F28" t="s">
-        <v>188</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>279</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
         <v>280</v>
       </c>
-      <c r="I28" t="s">
-        <v>188</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>281</v>
       </c>
-      <c r="K28" t="s">
-        <v>282</v>
-      </c>
-      <c r="L28" t="s">
-        <v>188</v>
-      </c>
       <c r="M28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N28">
         <v>2.3250406882120398</v>
@@ -3196,46 +3176,44 @@
       <c r="Q28">
         <v>0</v>
       </c>
+      <c r="R28">
+        <v>-3.75</v>
+      </c>
+      <c r="S28">
+        <v>-3.59</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>0.16000000000000014</v>
+      </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29" t="s">
         <v>283</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>284</v>
       </c>
-      <c r="C29" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>285</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>286</v>
       </c>
-      <c r="F29" t="s">
-        <v>188</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>287</v>
       </c>
-      <c r="H29" t="s">
+      <c r="J29" t="s">
         <v>288</v>
       </c>
-      <c r="I29" t="s">
-        <v>188</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>289</v>
       </c>
-      <c r="K29" t="s">
-        <v>290</v>
-      </c>
-      <c r="L29" t="s">
-        <v>188</v>
-      </c>
       <c r="M29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N29">
         <v>4.5836959675079703</v>
@@ -3249,46 +3227,44 @@
       <c r="Q29">
         <v>0</v>
       </c>
+      <c r="R29">
+        <v>-2.14</v>
+      </c>
+      <c r="S29">
+        <v>-2.21</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>6.999999999999984E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>290</v>
+      </c>
+      <c r="B30" t="s">
         <v>291</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>292</v>
       </c>
-      <c r="C30" t="s">
-        <v>188</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>293</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>294</v>
       </c>
-      <c r="F30" t="s">
-        <v>188</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>295</v>
       </c>
-      <c r="H30" t="s">
+      <c r="J30" t="s">
         <v>296</v>
       </c>
-      <c r="I30" t="s">
-        <v>188</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>297</v>
       </c>
-      <c r="K30" t="s">
-        <v>298</v>
-      </c>
-      <c r="L30" t="s">
-        <v>188</v>
-      </c>
       <c r="M30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N30">
         <v>0.34579066365206901</v>
@@ -3302,46 +3278,44 @@
       <c r="Q30">
         <v>0</v>
       </c>
+      <c r="R30">
+        <v>-2.77</v>
+      </c>
+      <c r="S30">
+        <v>-2.66</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>0.10999999999999988</v>
+      </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>298</v>
+      </c>
+      <c r="B31" t="s">
         <v>299</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>300</v>
       </c>
-      <c r="C31" t="s">
-        <v>188</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>301</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>302</v>
       </c>
-      <c r="F31" t="s">
-        <v>188</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>303</v>
       </c>
-      <c r="H31" t="s">
+      <c r="J31" t="s">
         <v>304</v>
       </c>
-      <c r="I31" t="s">
-        <v>188</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>305</v>
       </c>
-      <c r="K31" t="s">
-        <v>306</v>
-      </c>
-      <c r="L31" t="s">
-        <v>188</v>
-      </c>
       <c r="M31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N31">
         <v>1.7877094972067</v>
@@ -3355,23 +3329,37 @@
       <c r="Q31">
         <v>0</v>
       </c>
+      <c r="R31">
+        <v>-3.13</v>
+      </c>
+      <c r="S31">
+        <v>-3.17</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="N32" s="1">
         <f>AVERAGE(N17:N31)</f>
         <v>3.0571466205024174</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" ref="O32:Q32" si="1">AVERAGE(O17:O31)</f>
+        <f t="shared" ref="O32:Q32" si="2">AVERAGE(O17:O31)</f>
         <v>3.1124360278171301</v>
       </c>
       <c r="P32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6658189727389132</v>
       </c>
       <c r="Q32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+      <c r="T32" s="2">
+        <f>AVERAGE(T17:T31)</f>
+        <v>0.13933333333333336</v>
       </c>
     </row>
   </sheetData>
